--- a/biology/Histoire de la zoologie et de la botanique/Jean_Dorst/Jean_Dorst.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean_Dorst/Jean_Dorst.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Dorst, né à Brunstatt (Haut-Rhin) le 7 août 1924 et mort à Paris 4e le 8 août 2001[1], est un ornithologue français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Dorst, né à Brunstatt (Haut-Rhin) le 7 août 1924 et mort à Paris 4e le 8 août 2001, est un ornithologue français.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie la biologie et la paléontologie à la faculté des sciences de l'université de Paris. En 1947, il rejoint le Muséum national d'histoire naturelle. Il succède à Jacques Berlioz (1891-1975) à la direction du département des mammifères et oiseaux en 1964, et il est élu directeur du Muséum en 1975. Il en démissionne en 1985 pour protester contre les réformes gouvernementales dépouillant les scientifiques de leurs pouvoirs décisionnels au profit de hauts fonctionnaires ministériels.
-Il préside à Canberra le seizième Congrès ornithologique international (IOC) et la Société zoologique de France en 1964. Il est l'un des fondateurs et le second président du Fondation Charles Darwin des Galapagos, vice-président de la commission pour la protection des espèces menacées de l'Union internationale pour la conservation de la nature (UICN), membre du Conseil national de la protection de la nature, membre de l'Université Interdisciplinaire de Paris et de nombreuses sociétés scientifiques internationales. Il est élu membre de l'Académie des sciences en 1973 dans la section de zoologie[2],[3].
+Il préside à Canberra le seizième Congrès ornithologique international (IOC) et la Société zoologique de France en 1964. Il est l'un des fondateurs et le second président du Fondation Charles Darwin des Galapagos, vice-président de la commission pour la protection des espèces menacées de l'Union internationale pour la conservation de la nature (UICN), membre du Conseil national de la protection de la nature, membre de l'Université Interdisciplinaire de Paris et de nombreuses sociétés scientifiques internationales. Il est élu membre de l'Académie des sciences en 1973 dans la section de zoologie,.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Héritage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Dorst a publié une dizaine de livres traduits dans le monde entier, notamment Les Oiseaux, Les Migrations des Oiseaux, Avant que nature meure, La Vie des Oiseaux, Les Oiseaux dans leur milieu, un Guide des grands mammifères d'Afrique, Les Animaux voyageurs, L'Univers de la vie. Son ouvrage Avant que nature meure (1965) eut une grande influence sur les scientifiques de diverses disciplines, au-delà du monde francophone, qui prirent de plus en plus la mesure des problèmes posés par la perturbation des grands équilibres planétaires. Dans les années qui suivirent sa parution, de nombreuses associations consacrées à l'étude et à la protection de la nature virent le jour, notamment en France. En revanche, Jean Dorst fut peu écouté et même raillé dans les milieux politiques, économiques et syndicaux, réticents à imaginer que la période des « Trente Glorieuses » pourrait ne pas se prolonger indéfiniment et laisser derrière elle des conséquences coûteuses pour les générations futures[4]. Son fort engagement militant au sein de l'ONG des Amis de la Terre et de la LPO fait rejeter sa candidature en 1980 à l'Académie française, au profit de Marguerite Yourcenar[5]. Cela ne l'empêche pas de participer au scénario du film documentaire qui lui est dédié, Le Peuple migrateur.
-Il eut pour compagnons de route scientifiques et philosophiques Théodore Monod, Hannah Arendt, Jean Rostand, François Terrasson, Günther Anders, René Dumont, David Brower, Pierre Fournier, Claude Lévi-Strauss et Allain Bougrain-Dubourg. Il considérait le naturaliste et écrivain Pierre-Olivier Combelles comme son « disciple » et son « fils spirituel »[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Dorst a publié une dizaine de livres traduits dans le monde entier, notamment Les Oiseaux, Les Migrations des Oiseaux, Avant que nature meure, La Vie des Oiseaux, Les Oiseaux dans leur milieu, un Guide des grands mammifères d'Afrique, Les Animaux voyageurs, L'Univers de la vie. Son ouvrage Avant que nature meure (1965) eut une grande influence sur les scientifiques de diverses disciplines, au-delà du monde francophone, qui prirent de plus en plus la mesure des problèmes posés par la perturbation des grands équilibres planétaires. Dans les années qui suivirent sa parution, de nombreuses associations consacrées à l'étude et à la protection de la nature virent le jour, notamment en France. En revanche, Jean Dorst fut peu écouté et même raillé dans les milieux politiques, économiques et syndicaux, réticents à imaginer que la période des « Trente Glorieuses » pourrait ne pas se prolonger indéfiniment et laisser derrière elle des conséquences coûteuses pour les générations futures. Son fort engagement militant au sein de l'ONG des Amis de la Terre et de la LPO fait rejeter sa candidature en 1980 à l'Académie française, au profit de Marguerite Yourcenar. Cela ne l'empêche pas de participer au scénario du film documentaire qui lui est dédié, Le Peuple migrateur.
+Il eut pour compagnons de route scientifiques et philosophiques Théodore Monod, Hannah Arendt, Jean Rostand, François Terrasson, Günther Anders, René Dumont, David Brower, Pierre Fournier, Claude Lévi-Strauss et Allain Bougrain-Dubourg. Il considérait le naturaliste et écrivain Pierre-Olivier Combelles comme son « disciple » et son « fils spirituel ».
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Publications (liste partielle)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les Migrations des oiseaux, 1956, Payot, « Petite bibliothèque », 1956, réédition 1962
 Les Animaux voyageurs, 1964
